--- a/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001448</t>
-  </si>
-  <si>
-    <t>华商双翼平衡混合</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>40.01</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>0.0029</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.52</v>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.02</v>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.52</v>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,907 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4489</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>4.17</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>1.02</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -566,6 +583,820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5854</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4491</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1529,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1806,176 +2637,6 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001318</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2852</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>400020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方成长回报平衡混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>42.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002060</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2671,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2050,26 +2711,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>40.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>24.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2597</t>
+          <t>0.2852</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2078,36 +2739,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002060</t>
+          <t>400020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方新策略灵活配置混合C</t>
+          <t>东方成长回报平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>42.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1405</t>
+          <t>0.0382</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2116,36 +2777,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>400020</t>
+          <t>002060</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方成长回报平衡混合</t>
+          <t>东方新策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.53</t>
+          <t>24.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1215</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2154,6 +2815,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603529-爱玛科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>2.55</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>4.17</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>1.02</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -583,6 +600,858 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9612</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015902</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015903</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1396,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2360,7 +3229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2637,176 +3506,6 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001318</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2852</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>400020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方成长回报平衡混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>42.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002060</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +3540,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2881,26 +3580,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>40.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>24.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2597</t>
+          <t>0.2852</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2909,36 +3608,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002060</t>
+          <t>400020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方新策略灵活配置混合C</t>
+          <t>东方成长回报平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>42.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1405</t>
+          <t>0.0382</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2947,36 +3646,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>400020</t>
+          <t>002060</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方成长回报平衡混合</t>
+          <t>东方新策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.53</t>
+          <t>24.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1215</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2985,6 +3684,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
